--- a/guide/shr-core-PostalAddress.xlsx
+++ b/guide/shr-core-PostalAddress.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$14</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="160">
   <si>
     <t>Path</t>
   </si>
@@ -222,16 +222,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>insidecitylimits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://nightingaleproject.github.io/fhirDeathRecord/StructureDefinition/shr-core-InsideCityLimits-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Whether the address is within city limits (true) or not (false).</t>
   </si>
   <si>
     <t>Address.use</t>
@@ -668,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN15"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -678,7 +668,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1166,11 +1156,9 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>67</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>40</v>
       </c>
@@ -1185,20 +1173,26 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="O5" t="s" s="2">
         <v>40</v>
       </c>
@@ -1210,7 +1204,7 @@
         <v>40</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
         <v>40</v>
@@ -1222,28 +1216,28 @@
         <v>40</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="AC5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" t="s" s="2">
@@ -1257,13 +1251,13 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>40</v>
@@ -1271,7 +1265,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1282,44 +1276,40 @@
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="R6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s" s="2">
         <v>40</v>
@@ -1331,13 +1321,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -1366,21 +1356,21 @@
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1400,31 +1390,35 @@
         <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="R7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>40</v>
@@ -1436,13 +1430,13 @@
         <v>40</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>40</v>
@@ -1471,21 +1465,21 @@
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1496,7 +1490,7 @@
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1505,22 +1499,20 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s" s="2">
         <v>40</v>
@@ -1533,7 +1525,7 @@
         <v>40</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="T8" t="s" s="2">
         <v>40</v>
@@ -1580,32 +1572,32 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -1614,21 +1606,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M9" s="2"/>
-      <c r="N9" t="s" s="2">
-        <v>106</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>40</v>
       </c>
@@ -1640,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>40</v>
@@ -1687,25 +1677,25 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1721,18 +1711,20 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -1745,7 +1737,7 @@
         <v>40</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>40</v>
@@ -1792,25 +1784,25 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -1826,20 +1818,18 @@
         <v>40</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -1852,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>40</v>
@@ -1899,25 +1889,25 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -1933,16 +1923,16 @@
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1957,7 +1947,7 @@
         <v>40</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>40</v>
@@ -2004,25 +1994,25 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2038,18 +2028,20 @@
         <v>40</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2062,7 +2054,7 @@
         <v>40</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>40</v>
@@ -2109,21 +2101,21 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2131,7 +2123,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
@@ -2143,21 +2135,21 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2169,7 +2161,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -2216,127 +2208,20 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" hidden="true">
-      <c r="A15" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" s="2"/>
-      <c r="AF15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG15" s="2"/>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM15" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM15">
+  <autoFilter ref="A1:AM14">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2346,7 +2231,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI14">
+  <conditionalFormatting sqref="A2:AI13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
